--- a/Translation sheets/Translation-russian.xlsx
+++ b/Translation sheets/Translation-russian.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\SteamLibrary\SteamApps\common\RimWorld\Mods\PrisonLabor\Translation sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>English</t>
   </si>
@@ -258,6 +258,105 @@
   </si>
   <si>
     <t>Russian</t>
+  </si>
+  <si>
+    <t>Принудительные работы</t>
+  </si>
+  <si>
+    <t>Мотивация</t>
+  </si>
+  <si>
+    <t>Управление тюремным трудом</t>
+  </si>
+  <si>
+    <t>Настройки</t>
+  </si>
+  <si>
+    <t>Разрешённые виды работ:</t>
+  </si>
+  <si>
+    <t>Разрешенно:</t>
+  </si>
+  <si>
+    <t>Механика мотивации</t>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>[h1]Загрузки[/h1]</t>
+  </si>
+  <si>
+    <t>Тюремный труд</t>
+  </si>
+  <si>
+    <t>Особая благодарность:</t>
+  </si>
+  <si>
+    <t>[h1] Что нужно сделать [/h1]                                                                                                                                                                                                     [url=] Полный список[/url]                                                                                                                                                                                                             [url=]Дорога в бэту[/url]</t>
+  </si>
+  <si>
+    <t>[h1]Заметка Бэта[/h1]                                                                                                                                                                                                                    Это бэта версия. Некоторым аспектам мода требуется согласование (к примеру, мотивация). Всё ещё есть баги.</t>
+  </si>
+  <si>
+    <t>[h1]Заметка Альфа[/h1]                                                                                                                                                                                                                       Это ранняя альфа версия! Некоторые функии могут изменится и есть еще много того, что будет добавлено. Могут быть баги и несовместимости.</t>
+  </si>
+  <si>
+    <t>Вы можете заставить своих узников работать.\n\nДля начала вы должны выбрать "Принудительные работы" из вкладки "Узник"\n\nУзники будут работать над приказами и задачами при условии,что они находятся в разрешённой территории. Удостоверьтесь, что узники могут достигнуть места работы.\n\n Они могут только готовить, добывать руду, срезать растения, переносить, убирать, или выращивать растения, которые не требуют специальных навыков.\n\n Узник иногда отказывается работать. Причины могут быть разные. Он может быть ранен, голоден, уставшим или недостаточно мотивированным.\n\n Совет: Вы можете назначить виды работ во вкладке "Работа".\n\nСовет: если вы поставили плиту в тюремном корпусе, убедитесь в том, что они могут добраться до сырых продуктов.\n\nСовет: Вы можете разрешить узникам ходить через двери, если будете оставлять их открытыми.</t>
+  </si>
+  <si>
+    <t>Мотивирование узников</t>
+  </si>
+  <si>
+    <t>Один из ваших узников прекратил работать.\n Он не будет работать, пока вы его не промотивируете.\n\n Вы можете проверить статус мотивации во вкладке "Нужды".\n\n Удостоверьтесь, что у вас достаточно надзирателей (проверьте вкладку "Работа"), или выберите одного колониста и прикажите ему находиться рядом с узниками. Низкая мотивация узников может присести к восстанию.</t>
+  </si>
+  <si>
+    <t>Фермерство узников</t>
+  </si>
+  <si>
+    <t>Вы можете устанавливать ограничения для узников\n\n"Работа"- время когда узники будут работать, даже если они голодные или уставшие.\n\n"Веселье"- время, когда им разрешено отдохнуть от работы и получить бонус мотивации.\n\n"Сон"- время когда они вынуждены оставаться в тюрьме.\n\n"Ничего"- стандартная настройка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мотивация показывает, насколько узник мотивирован для работы. Мотивацию можно увеличить, если колонист будет находится рядом.\n\n Время ответа надзирателя: {0}%\nВремя остановки работы: {1}% </t>
+  </si>
+  <si>
+    <t>Зона работы</t>
+  </si>
+  <si>
+    <t>Отметьте зону "Только для узников", чтобы колонисты не работали над приказами в выбранной зоне.</t>
+  </si>
+  <si>
+    <t>Только для узников</t>
+  </si>
+  <si>
+    <t>Когда выбранный колонист не должен работать над этим приказом</t>
+  </si>
+  <si>
+    <t>Разрешить все</t>
+  </si>
+  <si>
+    <t>Когда выбранные узники должны быть промотивированы.</t>
+  </si>
+  <si>
+    <t>Ваш узник прекратил работать!</t>
+  </si>
+  <si>
+    <t>[h1]Описание[/h1]                                                                                                                                                                                                                               Этот мод заставляет узников работать.Чтобы активировать эту функцию, узники должны выбрать функцию "Заставить работать" (вкладка "Узник"). Тюремный труд нуждается в управлении, которое состоит из:                                                                                                                                                                                                                                                       [list]                                                                                                                                                                                                                                                         [*] Мотивация - узники мотивируются при присутствии колонистов. У надзирателей появилась новая работа - надзор за узниками.[strike]Низкая мотивация может привести к восстаниям.[/strike] [i]Восстания еще не доступны[/i]                                                                                                                                                                                                                                                 [*] Назначение работ - узники, которые имеют функию "Принудить к работе", добавлены во вкладку "Работа".            
+[*] [strike]  Ограничение времени - узники, которые имеют функию "Принудительные работы", добавлены во вкладку "Ограничения".[/strike] [i]Работа в процессе...[/i]                                                                                                                                [i] Тюремная зона - чтобы узники начали работать, им нужен доступ к цели. Вы можете выбрать "Держать открытыми" функцию для дверей.                                                                                                                                                                                                 [*] [strike] Инструменты"Только для узников  - Вы можете отдавать приказы и вексели, при помощи инструментов, которые исключают участие колониста от работы.[/strike] [i]Работа в процессе...[/i]                                                                                                                             [/list]</t>
+  </si>
+  <si>
+    <t>[h1]Альфа - На данный момент, чтобы заставить ваших узников работать, вы должны соблюдать эти условия[/h1]       [list]                                                                                                                                                                                                                                                        [*] Узник в безопасности и ему не нужен медицинский уход.                                                                                                                 [*] Узнику не нужно излечится от ран и болезней в постели.                                                                                                                   [*] Узник не может сбежать. 
+[*] Узник может добраться до работы (лучший способ это сделать - оставить открытыми двери в рабочую зону).
+[*] Узник сытый и отдохнувший.                                                                                                                                                                              [*] Взаимодействие с узником выбрано "Работа" (не "Разговор и Вербовка", или "Дружеский разговор").                    [*] Полоса лени во вкладке "Нужды" ниже 80%                                                                                                                                                        [/list]</t>
+  </si>
+  <si>
+    <t>Узники могут растить только те растения, для выращивания которых не нужны специальные навыки, такие как картошка или хлопок. Однако они могут собирать любые растения, которые были выбраны для сбора.</t>
+  </si>
+  <si>
+    <t>Вы можете управлять вашим тюремным трудом несколькими способами.\n\n Вы можете выбирать виды работ во вкладке"Работа".\n\nВы можете  ограничить время узника, выбрав, когда ему работать, отдыхать или спать во вкладке "Ограничения".\n\n Вы можете ограничить работу выбрав "Только узники". Для приказов в определенной зоне выберите инструмент "Рабочая зона" из "Архитектура"-&gt;"Приказы".\nДля векселей есть опция "Только для узников".</t>
+  </si>
+  <si>
+    <t>Ограничение времени узников</t>
   </si>
 </sst>
 </file>
@@ -699,6 +798,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,21 +850,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,24 +858,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -817,7 +916,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -852,23 +951,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -904,26 +986,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1099,14 +1164,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="60.875" customWidth="1"/>
+    <col min="2" max="2" width="66.25" customWidth="1"/>
     <col min="3" max="3" width="92.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1119,453 +1184,517 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="28"/>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="11"/>
+      <c r="C54" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="18"/>
-    </row>
-    <row r="56" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="1:3" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
       <c r="B56" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="28"/>
     </row>
     <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="28"/>
     </row>
     <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="28"/>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="11"/>
+      <c r="C62" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="30"/>
+      <c r="B63" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="28"/>
     </row>
     <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="11"/>
+      <c r="C64" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="17" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="28"/>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
+      <c r="C66" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="7"/>
       <c r="C67" s="1" t="s">
         <v>10</v>
@@ -1573,12 +1702,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A51:A67"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -1595,23 +1735,12 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A51:A67"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
